--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:44:22+00:00</t>
+    <t>2025-12-05T08:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:48:00+00:00</t>
+    <t>2025-12-05T09:22:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:24:40+00:00</t>
+    <t>2025-12-29T09:23:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:23:18+00:00</t>
+    <t>2025-12-29T09:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:56:40+00:00</t>
+    <t>2025-12-29T10:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:13:00+00:00</t>
+    <t>2025-12-29T10:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:22:56+00:00</t>
+    <t>2025-12-29T10:23:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:23:39+00:00</t>
+    <t>2025-12-29T10:37:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:37:03+00:00</t>
+    <t>2025-12-29T10:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:57:12+00:00</t>
+    <t>2025-12-29T16:37:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:37:53+00:00</t>
+    <t>2025-12-29T16:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3675" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3675" uniqueCount="669">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:39:07+00:00</t>
+    <t>2025-12-29T16:43:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,7 +118,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/resprate</t>
+    <t>http://hl7.org/fhir/StructureDefinition/resprate|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -488,6 +488,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-observation-resp-rate|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>Observation.meta.security</t>
   </si>
   <si>
@@ -653,7 +656,7 @@
     <t>bodyPosition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-observation-body-position-ext}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-observation-body-position-ext|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -674,7 +677,7 @@
     <t>levelOfExertion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-observation-level-of-exertion}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-observation-level-of-exertion|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1210,7 +1213,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1264,7 +1267,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-encounter)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-encounter|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1359,7 +1362,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|PractitionerRole|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person)
+    <t xml:space="preserve">Reference(CareTeam|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.2.0-ballot|PractitionerRole|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1718,7 +1721,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-respiratory-rate-meas-method</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-respiratory-rate-meas-method|2.2.0-ballot</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -2448,7 +2451,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="232.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2463,7 +2466,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.3046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3735,7 +3738,7 @@
         <v>83</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>151</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>83</v>
@@ -3809,10 +3812,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3835,16 +3838,16 @@
         <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3870,13 +3873,13 @@
         <v>83</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>83</v>
@@ -3894,7 +3897,7 @@
         <v>83</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3929,10 +3932,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3955,16 +3958,16 @@
         <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3990,13 +3993,13 @@
         <v>83</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>83</v>
@@ -4014,7 +4017,7 @@
         <v>83</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -4049,10 +4052,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4078,13 +4081,13 @@
         <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4134,7 +4137,7 @@
         <v>83</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -4169,10 +4172,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4195,16 +4198,16 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4230,13 +4233,13 @@
         <v>83</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>83</v>
@@ -4254,7 +4257,7 @@
         <v>83</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -4289,14 +4292,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4315,16 +4318,16 @@
         <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4374,7 +4377,7 @@
         <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -4398,7 +4401,7 @@
         <v>83</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>83</v>
@@ -4409,14 +4412,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4435,16 +4438,16 @@
         <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4494,7 +4497,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4518,7 +4521,7 @@
         <v>83</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>83</v>
@@ -4529,10 +4532,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4558,10 +4561,10 @@
         <v>115</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4610,7 +4613,7 @@
         <v>121</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4645,13 +4648,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>83</v>
@@ -4673,13 +4676,13 @@
         <v>83</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4730,7 +4733,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4739,7 +4742,7 @@
         <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>123</v>
@@ -4765,13 +4768,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>83</v>
@@ -4793,13 +4796,13 @@
         <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4850,7 +4853,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4859,7 +4862,7 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>123</v>
@@ -4885,13 +4888,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>83</v>
@@ -4913,13 +4916,13 @@
         <v>83</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4970,7 +4973,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -5005,10 +5008,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5034,16 +5037,16 @@
         <v>115</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
@@ -5092,7 +5095,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -5116,7 +5119,7 @@
         <v>83</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>83</v>
@@ -5127,10 +5130,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5153,17 +5156,17 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>83</v>
@@ -5212,7 +5215,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -5227,19 +5230,19 @@
         <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>83</v>
@@ -5247,14 +5250,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -5273,17 +5276,17 @@
         <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -5332,7 +5335,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -5347,16 +5350,16 @@
         <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>83</v>
@@ -5367,14 +5370,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5393,16 +5396,16 @@
         <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5452,7 +5455,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5467,16 +5470,16 @@
         <v>106</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>83</v>
@@ -5487,10 +5490,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5513,19 +5516,19 @@
         <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5550,11 +5553,11 @@
         <v>83</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>83</v>
@@ -5572,7 +5575,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>94</v>
@@ -5587,19 +5590,19 @@
         <v>106</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
@@ -5607,10 +5610,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5633,19 +5636,19 @@
         <v>83</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5670,19 +5673,19 @@
         <v>83</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
@@ -5692,7 +5695,7 @@
         <v>121</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5716,10 +5719,10 @@
         <v>83</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>83</v>
@@ -5727,13 +5730,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>83</v>
@@ -5755,19 +5758,19 @@
         <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5792,13 +5795,13 @@
         <v>83</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
@@ -5816,7 +5819,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5840,10 +5843,10 @@
         <v>83</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>83</v>
@@ -5851,10 +5854,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5969,10 +5972,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6089,10 +6092,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6115,19 +6118,19 @@
         <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -6176,7 +6179,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -6197,10 +6200,10 @@
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -6211,10 +6214,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6329,10 +6332,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6449,10 +6452,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6478,23 +6481,23 @@
         <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>83</v>
@@ -6536,7 +6539,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6557,10 +6560,10 @@
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6571,10 +6574,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6600,13 +6603,13 @@
         <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6656,7 +6659,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6677,10 +6680,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6691,10 +6694,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6717,24 +6720,24 @@
         <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>83</v>
@@ -6776,7 +6779,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6797,10 +6800,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6811,10 +6814,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6840,14 +6843,14 @@
         <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6896,7 +6899,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6917,10 +6920,10 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6931,10 +6934,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6957,19 +6960,19 @@
         <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -7018,7 +7021,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -7039,10 +7042,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -7053,10 +7056,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7082,16 +7085,16 @@
         <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -7140,7 +7143,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -7161,10 +7164,10 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -7175,14 +7178,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7201,19 +7204,19 @@
         <v>95</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
@@ -7238,13 +7241,13 @@
         <v>83</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>83</v>
@@ -7262,7 +7265,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>94</v>
@@ -7277,30 +7280,30 @@
         <v>106</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7415,10 +7418,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7535,10 +7538,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7561,19 +7564,19 @@
         <v>95</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -7610,7 +7613,7 @@
         <v>83</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
@@ -7620,7 +7623,7 @@
         <v>121</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7641,10 +7644,10 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7655,13 +7658,13 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>83</v>
@@ -7683,19 +7686,19 @@
         <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7744,7 +7747,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7765,10 +7768,10 @@
         <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7779,10 +7782,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7897,10 +7900,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8017,10 +8020,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8046,23 +8049,23 @@
         <v>136</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>83</v>
@@ -8104,7 +8107,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -8125,10 +8128,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -8139,10 +8142,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8168,13 +8171,13 @@
         <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8224,7 +8227,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -8245,10 +8248,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -8259,10 +8262,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8285,24 +8288,24 @@
         <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>83</v>
@@ -8344,7 +8347,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8365,10 +8368,10 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8379,10 +8382,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8408,14 +8411,14 @@
         <v>108</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8464,7 +8467,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8485,10 +8488,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8499,10 +8502,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8525,19 +8528,19 @@
         <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8586,7 +8589,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8607,10 +8610,10 @@
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8621,10 +8624,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8650,16 +8653,16 @@
         <v>108</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8708,7 +8711,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8729,10 +8732,10 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8743,10 +8746,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8769,19 +8772,19 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8830,7 +8833,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8845,19 +8848,19 @@
         <v>106</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>83</v>
@@ -8865,10 +8868,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8891,16 +8894,16 @@
         <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8950,7 +8953,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8971,13 +8974,13 @@
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -8985,14 +8988,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -9011,19 +9014,19 @@
         <v>95</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -9072,7 +9075,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -9087,19 +9090,19 @@
         <v>106</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>83</v>
@@ -9107,14 +9110,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -9133,19 +9136,19 @@
         <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -9194,7 +9197,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -9203,25 +9206,25 @@
         <v>94</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>83</v>
@@ -9229,10 +9232,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9258,13 +9261,13 @@
         <v>130</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9314,7 +9317,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9335,13 +9338,13 @@
         <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>83</v>
@@ -9349,10 +9352,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9375,17 +9378,17 @@
         <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9434,7 +9437,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9449,19 +9452,19 @@
         <v>106</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>83</v>
@@ -9469,10 +9472,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9495,19 +9498,19 @@
         <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
@@ -9544,17 +9547,17 @@
         <v>83</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9563,7 +9566,7 @@
         <v>94</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>106</v>
@@ -9572,30 +9575,30 @@
         <v>83</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>83</v>
@@ -9617,19 +9620,19 @@
         <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9678,7 +9681,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9687,7 +9690,7 @@
         <v>94</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>106</v>
@@ -9696,27 +9699,27 @@
         <v>83</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9831,10 +9834,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9951,10 +9954,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9977,19 +9980,19 @@
         <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
@@ -10038,7 +10041,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -10059,10 +10062,10 @@
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -10073,10 +10076,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10099,23 +10102,23 @@
         <v>95</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q64" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>83</v>
@@ -10136,13 +10139,13 @@
         <v>83</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>83</v>
@@ -10160,7 +10163,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -10181,10 +10184,10 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -10195,10 +10198,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10224,14 +10227,14 @@
         <v>108</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>83</v>
@@ -10280,7 +10283,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10301,10 +10304,10 @@
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -10315,10 +10318,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10344,21 +10347,21 @@
         <v>136</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>83</v>
@@ -10400,7 +10403,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10409,7 +10412,7 @@
         <v>94</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>106</v>
@@ -10421,10 +10424,10 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -10435,10 +10438,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10461,26 +10464,26 @@
         <v>95</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>83</v>
@@ -10522,7 +10525,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10543,10 +10546,10 @@
         <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
@@ -10557,10 +10560,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10583,19 +10586,19 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>83</v>
@@ -10620,13 +10623,13 @@
         <v>83</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>83</v>
@@ -10644,7 +10647,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10653,7 +10656,7 @@
         <v>94</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>106</v>
@@ -10665,10 +10668,10 @@
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
@@ -10679,14 +10682,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10705,19 +10708,19 @@
         <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>83</v>
@@ -10742,13 +10745,13 @@
         <v>83</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
@@ -10766,7 +10769,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10784,27 +10787,27 @@
         <v>83</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10827,19 +10830,19 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>83</v>
@@ -10888,7 +10891,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10909,10 +10912,10 @@
         <v>83</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -10923,10 +10926,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10949,16 +10952,16 @@
         <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10984,13 +10987,13 @@
         <v>83</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>83</v>
@@ -11008,7 +11011,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -11026,27 +11029,27 @@
         <v>83</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11069,19 +11072,19 @@
         <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>83</v>
@@ -11106,11 +11109,11 @@
         <v>83</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>83</v>
@@ -11128,7 +11131,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -11149,10 +11152,10 @@
         <v>83</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
@@ -11163,10 +11166,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11189,16 +11192,16 @@
         <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11248,7 +11251,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11266,27 +11269,27 @@
         <v>83</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11309,16 +11312,16 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11368,7 +11371,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11386,27 +11389,27 @@
         <v>83</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11429,19 +11432,19 @@
         <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -11490,7 +11493,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11502,7 +11505,7 @@
         <v>83</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>83</v>
@@ -11511,10 +11514,10 @@
         <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
@@ -11525,10 +11528,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11643,10 +11646,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11763,14 +11766,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11792,16 +11795,16 @@
         <v>115</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>83</v>
@@ -11850,7 +11853,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11874,7 +11877,7 @@
         <v>83</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
@@ -11885,10 +11888,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11911,13 +11914,13 @@
         <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11968,7 +11971,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11977,7 +11980,7 @@
         <v>94</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>106</v>
@@ -11989,10 +11992,10 @@
         <v>83</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
@@ -12003,10 +12006,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12029,13 +12032,13 @@
         <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12086,7 +12089,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -12095,7 +12098,7 @@
         <v>94</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>106</v>
@@ -12107,10 +12110,10 @@
         <v>83</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
@@ -12121,10 +12124,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12147,19 +12150,19 @@
         <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -12184,13 +12187,13 @@
         <v>83</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>83</v>
@@ -12208,7 +12211,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12226,13 +12229,13 @@
         <v>83</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
@@ -12243,10 +12246,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12269,19 +12272,19 @@
         <v>83</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>83</v>
@@ -12306,13 +12309,13 @@
         <v>83</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>83</v>
@@ -12330,7 +12333,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -12348,13 +12351,13 @@
         <v>83</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
@@ -12365,10 +12368,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12391,17 +12394,17 @@
         <v>83</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>83</v>
@@ -12450,7 +12453,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12474,7 +12477,7 @@
         <v>83</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
@@ -12485,10 +12488,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12514,10 +12517,10 @@
         <v>108</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12568,7 +12571,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12589,10 +12592,10 @@
         <v>83</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
@@ -12603,10 +12606,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12629,16 +12632,16 @@
         <v>95</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12688,7 +12691,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12709,10 +12712,10 @@
         <v>83</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>83</v>
@@ -12723,10 +12726,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12749,16 +12752,16 @@
         <v>95</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12808,7 +12811,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12829,10 +12832,10 @@
         <v>83</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>83</v>
@@ -12843,10 +12846,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12869,19 +12872,19 @@
         <v>95</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>83</v>
@@ -12930,7 +12933,7 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -12942,7 +12945,7 @@
         <v>83</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>83</v>
@@ -12951,10 +12954,10 @@
         <v>83</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
@@ -12965,10 +12968,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13083,10 +13086,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13203,14 +13206,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13232,16 +13235,16 @@
         <v>115</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
@@ -13290,7 +13293,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13314,7 +13317,7 @@
         <v>83</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
@@ -13325,10 +13328,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13351,19 +13354,19 @@
         <v>95</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>83</v>
@@ -13388,13 +13391,13 @@
         <v>83</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>83</v>
@@ -13412,7 +13415,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>94</v>
@@ -13430,16 +13433,16 @@
         <v>83</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>83</v>
@@ -13447,10 +13450,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13473,19 +13476,19 @@
         <v>95</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>83</v>
@@ -13510,13 +13513,13 @@
         <v>83</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>83</v>
@@ -13534,7 +13537,7 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -13543,7 +13546,7 @@
         <v>94</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>106</v>
@@ -13552,27 +13555,27 @@
         <v>83</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13595,19 +13598,19 @@
         <v>83</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>83</v>
@@ -13632,13 +13635,13 @@
         <v>83</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>83</v>
@@ -13656,7 +13659,7 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -13665,7 +13668,7 @@
         <v>94</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>106</v>
@@ -13677,10 +13680,10 @@
         <v>83</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>83</v>
@@ -13691,14 +13694,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13717,19 +13720,19 @@
         <v>83</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>83</v>
@@ -13754,13 +13757,13 @@
         <v>83</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>83</v>
@@ -13778,7 +13781,7 @@
         <v>83</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13796,27 +13799,27 @@
         <v>83</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13842,16 +13845,16 @@
         <v>84</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
@@ -13900,7 +13903,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13921,10 +13924,10 @@
         <v>83</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
